--- a/Pre-processing/TDA_PCA_template.xlsx
+++ b/Pre-processing/TDA_PCA_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golzardm\Documents\paper-TDA-embankment-monitoring\Pre-processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2585FD-D115-4E6E-96DE-495A465AF7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3AC2B9-BFB2-4011-9AD9-D252B7A1C0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
